--- a/output/tables/mesh/level0/mesh_terms-greece.xlsx
+++ b/output/tables/mesh/level0/mesh_terms-greece.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,139 +464,194 @@
           <t>2019</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Analytical, Diagnostic and Therapeutic Techniques, and Equipment</t>
+          <t>Organisms</t>
         </is>
       </c>
       <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
         <v>34</v>
       </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
       <c r="D2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K2">
         <v>109</v>
       </c>
       <c r="L2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P2">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="Q2">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="R2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="S2">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="T2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="U2">
-        <v>28</v>
+        <v>165</v>
+      </c>
+      <c r="V2">
+        <v>217</v>
+      </c>
+      <c r="W2">
+        <v>254</v>
+      </c>
+      <c r="X2">
+        <v>233</v>
+      </c>
+      <c r="Y2">
+        <v>184</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Organisms</t>
+          <t>Analytical, Diagnostic and Therapeutic Techniques, and Equipment</t>
         </is>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>82</v>
       </c>
       <c r="I3">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J3">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K3">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="L3">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="M3">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O3">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P3">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>141</v>
       </c>
       <c r="R3">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="S3">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="T3">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U3">
-        <v>34</v>
+        <v>144</v>
+      </c>
+      <c r="V3">
+        <v>192</v>
+      </c>
+      <c r="W3">
+        <v>224</v>
+      </c>
+      <c r="X3">
+        <v>203</v>
+      </c>
+      <c r="Y3">
+        <v>143</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -606,64 +661,79 @@
         </is>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>38</v>
       </c>
       <c r="H4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L4">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P4">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q4">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="R4">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="S4">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T4">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="U4">
-        <v>29</v>
+        <v>125</v>
+      </c>
+      <c r="V4">
+        <v>149</v>
+      </c>
+      <c r="W4">
+        <v>168</v>
+      </c>
+      <c r="X4">
+        <v>158</v>
+      </c>
+      <c r="Y4">
+        <v>106</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -679,58 +749,73 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N5">
+        <v>97</v>
+      </c>
+      <c r="O5">
+        <v>111</v>
+      </c>
+      <c r="P5">
+        <v>98</v>
+      </c>
+      <c r="Q5">
+        <v>92</v>
+      </c>
+      <c r="R5">
+        <v>79</v>
+      </c>
+      <c r="S5">
         <v>93</v>
       </c>
-      <c r="O5">
-        <v>109</v>
-      </c>
-      <c r="P5">
-        <v>93</v>
-      </c>
-      <c r="Q5">
-        <v>90</v>
-      </c>
-      <c r="R5">
-        <v>74</v>
-      </c>
-      <c r="S5">
-        <v>89</v>
-      </c>
       <c r="T5">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="U5">
-        <v>24</v>
+        <v>111</v>
+      </c>
+      <c r="V5">
+        <v>122</v>
+      </c>
+      <c r="W5">
+        <v>184</v>
+      </c>
+      <c r="X5">
+        <v>170</v>
+      </c>
+      <c r="Y5">
+        <v>127</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -746,58 +831,73 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>39</v>
       </c>
       <c r="F6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>33</v>
       </c>
       <c r="H6">
+        <v>63</v>
+      </c>
+      <c r="I6">
+        <v>73</v>
+      </c>
+      <c r="J6">
         <v>61</v>
-      </c>
-      <c r="I6">
-        <v>70</v>
-      </c>
-      <c r="J6">
-        <v>59</v>
       </c>
       <c r="K6">
         <v>65</v>
       </c>
       <c r="L6">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P6">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q6">
         <v>91</v>
       </c>
       <c r="R6">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T6">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="U6">
-        <v>19</v>
+        <v>108</v>
+      </c>
+      <c r="V6">
+        <v>123</v>
+      </c>
+      <c r="W6">
+        <v>161</v>
+      </c>
+      <c r="X6">
+        <v>168</v>
+      </c>
+      <c r="Y6">
+        <v>119</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -807,64 +907,79 @@
         </is>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7">
+        <v>53</v>
+      </c>
+      <c r="I7">
         <v>49</v>
       </c>
-      <c r="I7">
-        <v>44</v>
-      </c>
       <c r="J7">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L7">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M7">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="N7">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O7">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="P7">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q7">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R7">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S7">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="T7">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="U7">
-        <v>15</v>
+        <v>94</v>
+      </c>
+      <c r="V7">
+        <v>137</v>
+      </c>
+      <c r="W7">
+        <v>150</v>
+      </c>
+      <c r="X7">
+        <v>142</v>
+      </c>
+      <c r="Y7">
+        <v>111</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -874,64 +989,79 @@
         </is>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L8">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>47</v>
+      </c>
+      <c r="O8">
+        <v>60</v>
+      </c>
+      <c r="P8">
+        <v>55</v>
+      </c>
+      <c r="Q8">
+        <v>57</v>
+      </c>
+      <c r="R8">
         <v>40</v>
       </c>
-      <c r="M8">
-        <v>39</v>
-      </c>
-      <c r="N8">
-        <v>45</v>
-      </c>
-      <c r="O8">
-        <v>58</v>
-      </c>
-      <c r="P8">
-        <v>51</v>
-      </c>
-      <c r="Q8">
-        <v>54</v>
-      </c>
-      <c r="R8">
-        <v>38</v>
-      </c>
       <c r="S8">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="T8">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="U8">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="V8">
+        <v>73</v>
+      </c>
+      <c r="W8">
+        <v>70</v>
+      </c>
+      <c r="X8">
+        <v>37</v>
+      </c>
+      <c r="Y8">
+        <v>49</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -941,64 +1071,79 @@
         </is>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9">
+        <v>21</v>
+      </c>
+      <c r="G9">
         <v>19</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
       </c>
       <c r="H9">
         <v>27</v>
       </c>
       <c r="I9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <v>39</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S9">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="T9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="V9">
+        <v>47</v>
+      </c>
+      <c r="W9">
+        <v>48</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9">
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1008,332 +1153,407 @@
         </is>
       </c>
       <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
       <c r="D10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>16</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J10">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K10">
+        <v>44</v>
+      </c>
+      <c r="L10">
+        <v>42</v>
+      </c>
+      <c r="M10">
+        <v>44</v>
+      </c>
+      <c r="N10">
+        <v>43</v>
+      </c>
+      <c r="O10">
+        <v>51</v>
+      </c>
+      <c r="P10">
+        <v>44</v>
+      </c>
+      <c r="Q10">
+        <v>41</v>
+      </c>
+      <c r="R10">
+        <v>35</v>
+      </c>
+      <c r="S10">
+        <v>42</v>
+      </c>
+      <c r="T10">
+        <v>34</v>
+      </c>
+      <c r="U10">
+        <v>35</v>
+      </c>
+      <c r="V10">
         <v>40</v>
       </c>
-      <c r="L10">
-        <v>37</v>
-      </c>
-      <c r="M10">
-        <v>38</v>
-      </c>
-      <c r="N10">
-        <v>42</v>
-      </c>
-      <c r="O10">
-        <v>50</v>
-      </c>
-      <c r="P10">
-        <v>39</v>
-      </c>
-      <c r="Q10">
-        <v>39</v>
-      </c>
-      <c r="R10">
-        <v>33</v>
-      </c>
-      <c r="S10">
-        <v>37</v>
-      </c>
-      <c r="T10">
-        <v>25</v>
-      </c>
-      <c r="U10">
-        <v>12</v>
+      <c r="W10">
+        <v>59</v>
+      </c>
+      <c r="X10">
+        <v>67</v>
+      </c>
+      <c r="Y10">
+        <v>40</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K11">
+        <v>36</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
         <v>30</v>
       </c>
-      <c r="L11">
+      <c r="N11">
+        <v>39</v>
+      </c>
+      <c r="O11">
+        <v>46</v>
+      </c>
+      <c r="P11">
+        <v>42</v>
+      </c>
+      <c r="Q11">
         <v>32</v>
       </c>
-      <c r="M11">
-        <v>29</v>
-      </c>
-      <c r="N11">
-        <v>36</v>
-      </c>
-      <c r="O11">
+      <c r="R11">
+        <v>30</v>
+      </c>
+      <c r="S11">
         <v>45</v>
       </c>
-      <c r="P11">
-        <v>46</v>
-      </c>
-      <c r="Q11">
-        <v>52</v>
-      </c>
-      <c r="R11">
-        <v>40</v>
-      </c>
-      <c r="S11">
-        <v>47</v>
-      </c>
       <c r="T11">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="V11">
+        <v>51</v>
+      </c>
+      <c r="W11">
+        <v>68</v>
+      </c>
+      <c r="X11">
+        <v>69</v>
+      </c>
+      <c r="Y11">
+        <v>49</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anatomy</t>
+          <t>Disciplines and Occupations</t>
         </is>
       </c>
       <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
       <c r="D12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>13</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I12">
+        <v>34</v>
+      </c>
+      <c r="J12">
         <v>30</v>
       </c>
-      <c r="J12">
+      <c r="K12">
+        <v>29</v>
+      </c>
+      <c r="L12">
+        <v>45</v>
+      </c>
+      <c r="M12">
+        <v>36</v>
+      </c>
+      <c r="N12">
         <v>32</v>
       </c>
-      <c r="K12">
-        <v>33</v>
-      </c>
-      <c r="L12">
-        <v>27</v>
-      </c>
-      <c r="M12">
-        <v>29</v>
-      </c>
-      <c r="N12">
-        <v>37</v>
-      </c>
       <c r="O12">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="P12">
+        <v>45</v>
+      </c>
+      <c r="Q12">
         <v>40</v>
       </c>
-      <c r="Q12">
-        <v>32</v>
-      </c>
       <c r="R12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S12">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="T12">
         <v>34</v>
       </c>
       <c r="U12">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="V12">
+        <v>57</v>
+      </c>
+      <c r="W12">
+        <v>58</v>
+      </c>
+      <c r="X12">
+        <v>46</v>
+      </c>
+      <c r="Y12">
+        <v>45</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Disciplines and Occupations</t>
+          <t>Psychiatry and Psychology</t>
         </is>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>26</v>
+      </c>
+      <c r="L13">
         <v>30</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>29</v>
       </c>
-      <c r="L13">
+      <c r="N13">
+        <v>32</v>
+      </c>
+      <c r="O13">
+        <v>41</v>
+      </c>
+      <c r="P13">
+        <v>37</v>
+      </c>
+      <c r="Q13">
         <v>42</v>
       </c>
-      <c r="M13">
-        <v>33</v>
-      </c>
-      <c r="N13">
-        <v>30</v>
-      </c>
-      <c r="O13">
-        <v>26</v>
-      </c>
-      <c r="P13">
+      <c r="R13">
+        <v>27</v>
+      </c>
+      <c r="S13">
+        <v>43</v>
+      </c>
+      <c r="T13">
+        <v>44</v>
+      </c>
+      <c r="U13">
         <v>42</v>
       </c>
-      <c r="Q13">
-        <v>39</v>
-      </c>
-      <c r="R13">
-        <v>28</v>
-      </c>
-      <c r="S13">
-        <v>48</v>
-      </c>
-      <c r="T13">
-        <v>26</v>
-      </c>
-      <c r="U13">
-        <v>13</v>
+      <c r="V13">
+        <v>60</v>
+      </c>
+      <c r="W13">
+        <v>66</v>
+      </c>
+      <c r="X13">
+        <v>68</v>
+      </c>
+      <c r="Y13">
+        <v>54</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Psychiatry and Psychology</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="G14">
         <v>14</v>
       </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
       <c r="H14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N14">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O14">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P14">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="Q14">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="R14">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="S14">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T14">
         <v>38</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="V14">
+        <v>50</v>
+      </c>
+      <c r="W14">
+        <v>42</v>
+      </c>
+      <c r="X14">
+        <v>17</v>
+      </c>
+      <c r="Y14">
+        <v>17</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1361,10 +1581,10 @@
         <v>14</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1376,59 +1596,74 @@
         <v>22</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O15">
         <v>21</v>
       </c>
       <c r="P15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q15">
         <v>21</v>
       </c>
       <c r="R15">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T15">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="U15">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="V15">
+        <v>43</v>
+      </c>
+      <c r="W15">
+        <v>51</v>
+      </c>
+      <c r="X15">
+        <v>23</v>
+      </c>
+      <c r="Y15">
+        <v>32</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Geographicals</t>
+          <t>Technology, Industry, and Agriculture</t>
         </is>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>12</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>11</v>
@@ -1437,104 +1672,134 @@
         <v>15</v>
       </c>
       <c r="K16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16">
+        <v>24</v>
+      </c>
+      <c r="M16">
         <v>18</v>
-      </c>
-      <c r="M16">
-        <v>19</v>
       </c>
       <c r="N16">
         <v>23</v>
       </c>
       <c r="O16">
+        <v>21</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16">
         <v>23</v>
       </c>
-      <c r="P16">
-        <v>25</v>
-      </c>
-      <c r="Q16">
-        <v>33</v>
-      </c>
       <c r="R16">
+        <v>18</v>
+      </c>
+      <c r="S16">
+        <v>23</v>
+      </c>
+      <c r="T16">
+        <v>28</v>
+      </c>
+      <c r="U16">
+        <v>26</v>
+      </c>
+      <c r="V16">
+        <v>32</v>
+      </c>
+      <c r="W16">
+        <v>39</v>
+      </c>
+      <c r="X16">
+        <v>36</v>
+      </c>
+      <c r="Y16">
         <v>22</v>
       </c>
-      <c r="S16">
-        <v>21</v>
-      </c>
-      <c r="T16">
-        <v>23</v>
-      </c>
-      <c r="U16">
-        <v>7</v>
+      <c r="Z16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Technology, Industry, and Agriculture</t>
+          <t>Geographicals</t>
         </is>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>12</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17">
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>23</v>
+      </c>
+      <c r="O17">
+        <v>24</v>
+      </c>
+      <c r="P17">
+        <v>26</v>
+      </c>
+      <c r="Q17">
+        <v>33</v>
+      </c>
+      <c r="R17">
         <v>22</v>
       </c>
-      <c r="L17">
+      <c r="S17">
+        <v>25</v>
+      </c>
+      <c r="T17">
+        <v>23</v>
+      </c>
+      <c r="U17">
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>44</v>
+      </c>
+      <c r="W17">
+        <v>32</v>
+      </c>
+      <c r="X17">
         <v>22</v>
       </c>
-      <c r="M17">
-        <v>18</v>
-      </c>
-      <c r="N17">
-        <v>22</v>
-      </c>
-      <c r="O17">
-        <v>20</v>
-      </c>
-      <c r="P17">
-        <v>19</v>
-      </c>
-      <c r="Q17">
-        <v>21</v>
-      </c>
-      <c r="R17">
-        <v>17</v>
-      </c>
-      <c r="S17">
-        <v>23</v>
-      </c>
-      <c r="T17">
-        <v>24</v>
-      </c>
-      <c r="U17">
-        <v>8</v>
+      <c r="Y17">
+        <v>12</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1544,7 +1809,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1562,10 +1827,10 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>7</v>
@@ -1577,16 +1842,16 @@
         <v>11</v>
       </c>
       <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>13</v>
+      </c>
+      <c r="O18">
         <v>5</v>
       </c>
-      <c r="N18">
-        <v>11</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
       <c r="P18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -1598,10 +1863,25 @@
         <v>6</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>14</v>
+      </c>
+      <c r="X18">
+        <v>11</v>
+      </c>
+      <c r="Y18">
+        <v>9</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1891,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1723,139 +2003,194 @@
           <t>2019</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Analytical, Diagnostic and Therapeutic Techniques, and Equipment</t>
+          <t>Organisms</t>
         </is>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N2">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="Q2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="R2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="T2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="U2">
-        <v>28</v>
+        <v>164</v>
+      </c>
+      <c r="V2">
+        <v>213</v>
+      </c>
+      <c r="W2">
+        <v>252</v>
+      </c>
+      <c r="X2">
+        <v>233</v>
+      </c>
+      <c r="Y2">
+        <v>184</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Organisms</t>
+          <t>Analytical, Diagnostic and Therapeutic Techniques, and Equipment</t>
         </is>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3">
+        <v>62</v>
+      </c>
+      <c r="F3">
+        <v>61</v>
+      </c>
+      <c r="G3">
         <v>52</v>
-      </c>
-      <c r="F3">
-        <v>48</v>
-      </c>
-      <c r="G3">
-        <v>47</v>
       </c>
       <c r="H3">
         <v>77</v>
       </c>
       <c r="I3">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J3">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K3">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="L3">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="M3">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N3">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O3">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="P3">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Q3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R3">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="S3">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="T3">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="U3">
-        <v>34</v>
+        <v>143</v>
+      </c>
+      <c r="V3">
+        <v>189</v>
+      </c>
+      <c r="W3">
+        <v>223</v>
+      </c>
+      <c r="X3">
+        <v>203</v>
+      </c>
+      <c r="Y3">
+        <v>143</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1865,64 +2200,79 @@
         </is>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G4">
         <v>37</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K4">
+        <v>88</v>
+      </c>
+      <c r="L4">
+        <v>83</v>
+      </c>
+      <c r="M4">
+        <v>76</v>
+      </c>
+      <c r="N4">
+        <v>95</v>
+      </c>
+      <c r="O4">
+        <v>106</v>
+      </c>
+      <c r="P4">
+        <v>113</v>
+      </c>
+      <c r="Q4">
+        <v>101</v>
+      </c>
+      <c r="R4">
+        <v>82</v>
+      </c>
+      <c r="S4">
+        <v>112</v>
+      </c>
+      <c r="T4">
         <v>85</v>
       </c>
-      <c r="L4">
-        <v>78</v>
-      </c>
-      <c r="M4">
-        <v>73</v>
-      </c>
-      <c r="N4">
-        <v>91</v>
-      </c>
-      <c r="O4">
-        <v>101</v>
-      </c>
-      <c r="P4">
+      <c r="U4">
+        <v>124</v>
+      </c>
+      <c r="V4">
+        <v>147</v>
+      </c>
+      <c r="W4">
+        <v>167</v>
+      </c>
+      <c r="X4">
+        <v>158</v>
+      </c>
+      <c r="Y4">
         <v>106</v>
       </c>
-      <c r="Q4">
-        <v>97</v>
-      </c>
-      <c r="R4">
-        <v>75</v>
-      </c>
-      <c r="S4">
-        <v>102</v>
-      </c>
-      <c r="T4">
-        <v>69</v>
-      </c>
-      <c r="U4">
-        <v>29</v>
+      <c r="Z4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1938,58 +2288,73 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="F5">
         <v>42</v>
       </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
       <c r="G5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5">
+        <v>81</v>
+      </c>
+      <c r="L5">
         <v>79</v>
       </c>
-      <c r="L5">
-        <v>76</v>
-      </c>
       <c r="M5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P5">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R5">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S5">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T5">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="U5">
-        <v>24</v>
+        <v>111</v>
+      </c>
+      <c r="V5">
+        <v>122</v>
+      </c>
+      <c r="W5">
+        <v>183</v>
+      </c>
+      <c r="X5">
+        <v>170</v>
+      </c>
+      <c r="Y5">
+        <v>127</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2011,52 +2376,67 @@
         <v>39</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>33</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6">
         <v>61</v>
       </c>
       <c r="L6">
+        <v>80</v>
+      </c>
+      <c r="M6">
         <v>77</v>
       </c>
-      <c r="M6">
-        <v>76</v>
-      </c>
       <c r="N6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q6">
         <v>89</v>
       </c>
       <c r="R6">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="S6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T6">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="U6">
-        <v>19</v>
+        <v>107</v>
+      </c>
+      <c r="V6">
+        <v>121</v>
+      </c>
+      <c r="W6">
+        <v>160</v>
+      </c>
+      <c r="X6">
+        <v>168</v>
+      </c>
+      <c r="Y6">
+        <v>119</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2066,64 +2446,79 @@
         </is>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
         <v>47</v>
       </c>
-      <c r="I7">
-        <v>42</v>
-      </c>
       <c r="J7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N7">
+        <v>77</v>
+      </c>
+      <c r="O7">
+        <v>77</v>
+      </c>
+      <c r="P7">
+        <v>68</v>
+      </c>
+      <c r="Q7">
+        <v>72</v>
+      </c>
+      <c r="R7">
+        <v>45</v>
+      </c>
+      <c r="S7">
         <v>73</v>
       </c>
-      <c r="O7">
-        <v>68</v>
-      </c>
-      <c r="P7">
-        <v>61</v>
-      </c>
-      <c r="Q7">
-        <v>69</v>
-      </c>
-      <c r="R7">
-        <v>42</v>
-      </c>
-      <c r="S7">
-        <v>63</v>
-      </c>
       <c r="T7">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="U7">
-        <v>15</v>
+        <v>93</v>
+      </c>
+      <c r="V7">
+        <v>136</v>
+      </c>
+      <c r="W7">
+        <v>149</v>
+      </c>
+      <c r="X7">
+        <v>142</v>
+      </c>
+      <c r="Y7">
+        <v>111</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2133,64 +2528,79 @@
         </is>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
         <v>34</v>
       </c>
-      <c r="K8">
-        <v>32</v>
-      </c>
       <c r="L8">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>43</v>
+      </c>
+      <c r="O8">
+        <v>59</v>
+      </c>
+      <c r="P8">
+        <v>54</v>
+      </c>
+      <c r="Q8">
+        <v>53</v>
+      </c>
+      <c r="R8">
         <v>40</v>
       </c>
-      <c r="M8">
-        <v>39</v>
-      </c>
-      <c r="N8">
-        <v>42</v>
-      </c>
-      <c r="O8">
-        <v>57</v>
-      </c>
-      <c r="P8">
-        <v>50</v>
-      </c>
-      <c r="Q8">
-        <v>52</v>
-      </c>
-      <c r="R8">
-        <v>38</v>
-      </c>
       <c r="S8">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="T8">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="U8">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="V8">
+        <v>73</v>
+      </c>
+      <c r="W8">
+        <v>69</v>
+      </c>
+      <c r="X8">
+        <v>37</v>
+      </c>
+      <c r="Y8">
+        <v>49</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2200,64 +2610,79 @@
         </is>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>15</v>
       </c>
       <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+      <c r="G9">
         <v>19</v>
-      </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
       </c>
       <c r="H9">
         <v>24</v>
       </c>
       <c r="I9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J9">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <v>39</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N9">
+        <v>47</v>
+      </c>
+      <c r="O9">
+        <v>55</v>
+      </c>
+      <c r="P9">
+        <v>55</v>
+      </c>
+      <c r="Q9">
+        <v>55</v>
+      </c>
+      <c r="R9">
         <v>44</v>
       </c>
-      <c r="O9">
-        <v>52</v>
-      </c>
-      <c r="P9">
-        <v>51</v>
-      </c>
-      <c r="Q9">
-        <v>53</v>
-      </c>
-      <c r="R9">
-        <v>42</v>
-      </c>
       <c r="S9">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="T9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="V9">
+        <v>47</v>
+      </c>
+      <c r="W9">
+        <v>48</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9">
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2267,332 +2692,407 @@
         </is>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>16</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>42</v>
       </c>
       <c r="O10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q10">
         <v>39</v>
       </c>
       <c r="R10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S10">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T10">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U10">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="V10">
+        <v>39</v>
+      </c>
+      <c r="W10">
+        <v>59</v>
+      </c>
+      <c r="X10">
+        <v>67</v>
+      </c>
+      <c r="Y10">
+        <v>40</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J11">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>27</v>
+      </c>
+      <c r="N11">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>46</v>
+      </c>
+      <c r="P11">
+        <v>42</v>
+      </c>
+      <c r="Q11">
         <v>31</v>
       </c>
-      <c r="K11">
+      <c r="R11">
         <v>30</v>
       </c>
-      <c r="L11">
-        <v>32</v>
-      </c>
-      <c r="M11">
-        <v>28</v>
-      </c>
-      <c r="N11">
-        <v>35</v>
-      </c>
-      <c r="O11">
+      <c r="S11">
         <v>45</v>
       </c>
-      <c r="P11">
-        <v>45</v>
-      </c>
-      <c r="Q11">
-        <v>52</v>
-      </c>
-      <c r="R11">
-        <v>40</v>
-      </c>
-      <c r="S11">
-        <v>47</v>
-      </c>
       <c r="T11">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="V11">
+        <v>51</v>
+      </c>
+      <c r="W11">
+        <v>68</v>
+      </c>
+      <c r="X11">
+        <v>69</v>
+      </c>
+      <c r="Y11">
+        <v>49</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anatomy</t>
+          <t>Disciplines and Occupations</t>
         </is>
       </c>
       <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
       <c r="D12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>13</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I12">
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>28</v>
+      </c>
+      <c r="L12">
+        <v>44</v>
+      </c>
+      <c r="M12">
+        <v>34</v>
+      </c>
+      <c r="N12">
+        <v>31</v>
+      </c>
+      <c r="O12">
+        <v>28</v>
+      </c>
+      <c r="P12">
+        <v>43</v>
+      </c>
+      <c r="Q12">
+        <v>37</v>
+      </c>
+      <c r="R12">
         <v>29</v>
       </c>
-      <c r="J12">
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>32</v>
-      </c>
-      <c r="L12">
-        <v>27</v>
-      </c>
-      <c r="M12">
-        <v>26</v>
-      </c>
-      <c r="N12">
-        <v>36</v>
-      </c>
-      <c r="O12">
-        <v>43</v>
-      </c>
-      <c r="P12">
-        <v>40</v>
-      </c>
-      <c r="Q12">
-        <v>31</v>
-      </c>
-      <c r="R12">
-        <v>28</v>
-      </c>
       <c r="S12">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="T12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U12">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="V12">
+        <v>57</v>
+      </c>
+      <c r="W12">
+        <v>59</v>
+      </c>
+      <c r="X12">
+        <v>46</v>
+      </c>
+      <c r="Y12">
+        <v>45</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Disciplines and Occupations</t>
+          <t>Psychiatry and Psychology</t>
         </is>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J13">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>29</v>
       </c>
       <c r="O13">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="P13">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R13">
         <v>27</v>
       </c>
       <c r="S13">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="T13">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U13">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="V13">
+        <v>60</v>
+      </c>
+      <c r="W13">
+        <v>66</v>
+      </c>
+      <c r="X13">
+        <v>68</v>
+      </c>
+      <c r="Y13">
+        <v>54</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Psychiatry and Psychology</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="G14">
         <v>14</v>
       </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
       <c r="H14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <v>35</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>38</v>
+      </c>
+      <c r="O14">
+        <v>47</v>
+      </c>
+      <c r="P14">
+        <v>50</v>
+      </c>
+      <c r="Q14">
+        <v>54</v>
+      </c>
+      <c r="R14">
+        <v>42</v>
+      </c>
+      <c r="S14">
+        <v>49</v>
+      </c>
+      <c r="T14">
+        <v>38</v>
+      </c>
+      <c r="U14">
+        <v>58</v>
+      </c>
+      <c r="V14">
+        <v>50</v>
+      </c>
+      <c r="W14">
+        <v>42</v>
+      </c>
+      <c r="X14">
         <v>17</v>
       </c>
-      <c r="J14">
-        <v>23</v>
-      </c>
-      <c r="K14">
-        <v>24</v>
-      </c>
-      <c r="L14">
-        <v>27</v>
-      </c>
-      <c r="M14">
-        <v>28</v>
-      </c>
-      <c r="N14">
-        <v>28</v>
-      </c>
-      <c r="O14">
-        <v>40</v>
-      </c>
-      <c r="P14">
-        <v>35</v>
-      </c>
-      <c r="Q14">
-        <v>35</v>
-      </c>
-      <c r="R14">
-        <v>24</v>
-      </c>
-      <c r="S14">
-        <v>40</v>
-      </c>
-      <c r="T14">
-        <v>35</v>
-      </c>
-      <c r="U14">
-        <v>6</v>
+      <c r="Y14">
+        <v>17</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2620,10 +3120,10 @@
         <v>14</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -2635,59 +3135,74 @@
         <v>19</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O15">
         <v>21</v>
       </c>
       <c r="P15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15">
         <v>18</v>
       </c>
       <c r="R15">
+        <v>31</v>
+      </c>
+      <c r="S15">
+        <v>33</v>
+      </c>
+      <c r="T15">
         <v>28</v>
       </c>
-      <c r="S15">
+      <c r="U15">
+        <v>37</v>
+      </c>
+      <c r="V15">
+        <v>43</v>
+      </c>
+      <c r="W15">
+        <v>51</v>
+      </c>
+      <c r="X15">
+        <v>23</v>
+      </c>
+      <c r="Y15">
         <v>32</v>
       </c>
-      <c r="T15">
-        <v>25</v>
-      </c>
-      <c r="U15">
-        <v>8</v>
+      <c r="Z15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Geographicals</t>
+          <t>Technology, Industry, and Agriculture</t>
         </is>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>12</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>11</v>
@@ -2696,104 +3211,134 @@
         <v>15</v>
       </c>
       <c r="K16">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>23</v>
+      </c>
+      <c r="O16">
         <v>21</v>
       </c>
-      <c r="L16">
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16">
+        <v>21</v>
+      </c>
+      <c r="R16">
         <v>18</v>
-      </c>
-      <c r="M16">
-        <v>19</v>
-      </c>
-      <c r="N16">
-        <v>22</v>
-      </c>
-      <c r="O16">
-        <v>23</v>
-      </c>
-      <c r="P16">
-        <v>25</v>
-      </c>
-      <c r="Q16">
-        <v>30</v>
-      </c>
-      <c r="R16">
-        <v>22</v>
       </c>
       <c r="S16">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="V16">
+        <v>31</v>
+      </c>
+      <c r="W16">
+        <v>39</v>
+      </c>
+      <c r="X16">
+        <v>36</v>
+      </c>
+      <c r="Y16">
+        <v>22</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Technology, Industry, and Agriculture</t>
+          <t>Geographicals</t>
         </is>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>12</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17">
         <v>22</v>
       </c>
       <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
         <v>20</v>
-      </c>
-      <c r="M17">
-        <v>17</v>
       </c>
       <c r="N17">
         <v>22</v>
       </c>
       <c r="O17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P17">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S17">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U17">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>44</v>
+      </c>
+      <c r="W17">
+        <v>32</v>
+      </c>
+      <c r="X17">
+        <v>22</v>
+      </c>
+      <c r="Y17">
+        <v>12</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2803,7 +3348,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2821,10 +3366,10 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>7</v>
@@ -2836,16 +3381,16 @@
         <v>11</v>
       </c>
       <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>13</v>
+      </c>
+      <c r="O18">
         <v>5</v>
       </c>
-      <c r="N18">
-        <v>11</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
       <c r="P18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -2857,10 +3402,25 @@
         <v>6</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>14</v>
+      </c>
+      <c r="X18">
+        <v>11</v>
+      </c>
+      <c r="Y18">
+        <v>9</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
